--- a/spreadsheet/macrofree/sql_checklist.es.xlsx
+++ b/spreadsheet/macrofree/sql_checklist.es.xlsx
@@ -2627,7 +2627,7 @@
       </c>
       <c r="D39" s="21" t="inlineStr">
         <is>
-          <t>Microsoft Defender detecta actividades anómalas que indican intentos inusuales y potencialmente dañinos de acceder a bases de datos o explotar bases de datos en el servidor SQL.</t>
+          <t>Microsoft Defender detecta actividades anómalas que indican intentos inusuales y potencialmente dañinos de acceder a bases de datos o explotar bases de datos en SQL Server.</t>
         </is>
       </c>
       <c r="E39" s="21" t="inlineStr">
@@ -3638,7 +3638,7 @@
       </c>
       <c r="D58" s="21" t="inlineStr">
         <is>
-          <t>Cuando se utilizan opciones de migración que replican o sincronizan continuamente los cambios de datos del origen al destino, los datos y el esquema de origen pueden cambiar y desviarse del destino. Durante la sincronización de datos, asegúrese de que todos los cambios en el origen se capturan y aplican al destino durante el proceso de migración.</t>
+          <t>Cuando se utilizan opciones de migración que replican o sincronizan continuamente los cambios de datos del origen al destino, los datos de origen y el esquema pueden cambiar y desviarse del destino. Durante la sincronización de datos, asegúrese de que todos los cambios en el origen se capturan y aplican al destino durante el proceso de migración.</t>
         </is>
       </c>
       <c r="E58" s="21" t="inlineStr">
